--- a/public/template_user.xlsx
+++ b/public/template_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ECF3110D-A0F2-4637-A7CA-7618B73BD5C0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6AAEA6-4430-4C25-821B-350C4EC9ECAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11424" yWindow="0" windowWidth="11712" windowHeight="12336" xr2:uid="{2F0E9FE0-32C9-4A16-A1E3-4F2589DDB575}"/>
+    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{2F0E9FE0-32C9-4A16-A1E3-4F2589DDB575}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -30,64 +30,64 @@
     <t>user_id</t>
   </si>
   <si>
+    <t>username</t>
+  </si>
+  <si>
+    <t>nama</t>
+  </si>
+  <si>
+    <t>password</t>
+  </si>
+  <si>
+    <t>USR-001</t>
+  </si>
+  <si>
+    <t>USR-004</t>
+  </si>
+  <si>
+    <t>USR-005</t>
+  </si>
+  <si>
+    <t>USR-002</t>
+  </si>
+  <si>
+    <t>USR-003</t>
+  </si>
+  <si>
+    <t>Manager_Ayleen</t>
+  </si>
+  <si>
+    <t>Admin_Qisthy</t>
+  </si>
+  <si>
+    <t>Staff Claudea</t>
+  </si>
+  <si>
+    <t>Ayleen</t>
+  </si>
+  <si>
+    <t>Admin_Rakai</t>
+  </si>
+  <si>
+    <t>Manager_Danen</t>
+  </si>
+  <si>
+    <t>Rakai</t>
+  </si>
+  <si>
+    <t>Qisthy</t>
+  </si>
+  <si>
+    <t>Danen</t>
+  </si>
+  <si>
+    <t>Claudea</t>
+  </si>
+  <si>
+    <t>$2y$12$JHS6kqvzRJ4JOI.u7AOeNOBG95mdqDxcAbDOlmq/3CmAyXL2gnllG</t>
+  </si>
+  <si>
     <t>level_id</t>
-  </si>
-  <si>
-    <t>username</t>
-  </si>
-  <si>
-    <t>nama</t>
-  </si>
-  <si>
-    <t>password</t>
-  </si>
-  <si>
-    <t>USR-001</t>
-  </si>
-  <si>
-    <t>USR-004</t>
-  </si>
-  <si>
-    <t>USR-005</t>
-  </si>
-  <si>
-    <t>USR-002</t>
-  </si>
-  <si>
-    <t>USR-003</t>
-  </si>
-  <si>
-    <t>Manager_Ayleen</t>
-  </si>
-  <si>
-    <t>Admin_Qisthy</t>
-  </si>
-  <si>
-    <t>Staff Claudea</t>
-  </si>
-  <si>
-    <t>Ayleen</t>
-  </si>
-  <si>
-    <t>Admin_Rakai</t>
-  </si>
-  <si>
-    <t>Manager_Danen</t>
-  </si>
-  <si>
-    <t>Rakai</t>
-  </si>
-  <si>
-    <t>Qisthy</t>
-  </si>
-  <si>
-    <t>Danen</t>
-  </si>
-  <si>
-    <t>Claudea</t>
-  </si>
-  <si>
-    <t>$2y$12$JHS6kqvzRJ4JOI.u7AOeNOBG95mdqDxcAbDOlmq/3CmAyXL2gnllG</t>
   </si>
 </sst>
 </file>
@@ -451,13 +451,12 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G13" sqref="G13"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="11.21875" customWidth="1"/>
-    <col min="2" max="2" width="15" customWidth="1"/>
+    <col min="1" max="2" width="11.21875" customWidth="1"/>
     <col min="3" max="3" width="24.44140625" customWidth="1"/>
     <col min="4" max="4" width="10.77734375" customWidth="1"/>
     <col min="5" max="5" width="11" customWidth="1"/>
@@ -468,101 +467,101 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="E1" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B2">
         <v>2</v>
       </c>
       <c r="C2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B3">
         <v>1</v>
       </c>
       <c r="C3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B4">
         <v>1</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="D4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="E4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B5">
         <v>2</v>
       </c>
       <c r="C5" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="E5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B6">
         <v>3</v>
       </c>
       <c r="C6" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="D6" t="s">
+        <v>18</v>
+      </c>
+      <c r="E6" t="s">
         <v>19</v>
-      </c>
-      <c r="E6" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>

--- a/public/template_user.xlsx
+++ b/public/template_user.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\laragon\www\PWL_POS\public\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA6AAEA6-4430-4C25-821B-350C4EC9ECAF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0377EB98-28DA-4E01-9DAE-6AE97CDC8E88}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2304" yWindow="2304" windowWidth="17280" windowHeight="8880" xr2:uid="{2F0E9FE0-32C9-4A16-A1E3-4F2589DDB575}"/>
+    <workbookView xWindow="384" yWindow="384" windowWidth="17268" windowHeight="8880" xr2:uid="{2F0E9FE0-32C9-4A16-A1E3-4F2589DDB575}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="21">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
   <si>
     <t>user_id</t>
   </si>
@@ -82,9 +82,6 @@
   </si>
   <si>
     <t>Claudea</t>
-  </si>
-  <si>
-    <t>$2y$12$JHS6kqvzRJ4JOI.u7AOeNOBG95mdqDxcAbDOlmq/3CmAyXL2gnllG</t>
   </si>
   <si>
     <t>level_id</t>
@@ -451,7 +448,7 @@
   <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="F14" sqref="F13:F14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -467,7 +464,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
@@ -492,8 +489,8 @@
       <c r="D2" t="s">
         <v>12</v>
       </c>
-      <c r="E2" t="s">
-        <v>19</v>
+      <c r="E2">
+        <v>12345</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
@@ -509,8 +506,8 @@
       <c r="D3" t="s">
         <v>15</v>
       </c>
-      <c r="E3" t="s">
-        <v>19</v>
+      <c r="E3">
+        <v>12345</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -526,8 +523,8 @@
       <c r="D4" t="s">
         <v>16</v>
       </c>
-      <c r="E4" t="s">
-        <v>19</v>
+      <c r="E4">
+        <v>12345</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -543,8 +540,8 @@
       <c r="D5" t="s">
         <v>17</v>
       </c>
-      <c r="E5" t="s">
-        <v>19</v>
+      <c r="E5">
+        <v>12345</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -560,8 +557,8 @@
       <c r="D6" t="s">
         <v>18</v>
       </c>
-      <c r="E6" t="s">
-        <v>19</v>
+      <c r="E6">
+        <v>12345</v>
       </c>
     </row>
   </sheetData>
